--- a/biology/Médecine/Grand_cercle_artériel_de_l'iris/Grand_cercle_artériel_de_l'iris.xlsx
+++ b/biology/Médecine/Grand_cercle_artériel_de_l'iris/Grand_cercle_artériel_de_l'iris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_cercle_art%C3%A9riel_de_l%27iris</t>
+          <t>Grand_cercle_artériel_de_l'iris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand cercle artériel de l'iris (ou  grand cercle artériel irido-ciliaire)  est formé par l'anastomose des artères ciliaires antérieures avec les artères ciliaires postérieures longues au niveau du corps ciliaire. Il alimente l'iris, le corps ciliaire et la choroïde.
 Le drainage veineux du grand cercle artériel de l'iris  se fait par 4 veines vorticineuses qui se jettent dans la veine ophtalmique.
